--- a/DataCleaner/DataSource/final/imf_ppp/2019.xlsx
+++ b/DataCleaner/DataSource/final/imf_ppp/2019.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,221 +446,201 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Arabic</t>
+          <t>English</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.247115533310451</v>
+        <v>21.59770217433532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Bengali</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7281202440245618</v>
+        <v>18.54551662976611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.54551662976611</v>
+        <v>6.59276099873834</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Dutch</t>
+          <t>German</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.228598994538466</v>
+        <v>4.30372386983408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Arabic</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.59770217433532</v>
+        <v>4.247115533310451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.619545008147039</v>
+        <v>4.03996908203427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Russian</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.30372386983408</v>
+        <v>3.220604241080689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Malay-Indonesian</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.969904988929833</v>
+        <v>3.151907800318338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>Portuguese</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.03996908203427</v>
+        <v>2.861751308099515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>French</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.701512093732438</v>
+        <v>2.619545008147039</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Malay-Indonesian</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.151907800318338</v>
+        <v>1.969904988929833</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Persian</t>
+          <t>Turkish</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9965705998917499</v>
+        <v>1.818988959772109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Polish</t>
+          <t>Korean</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9698233947787287</v>
+        <v>1.701512093732438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Portuguese</t>
+          <t>Dutch</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.861751308099515</v>
+        <v>1.228598994538466</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Russian</t>
+          <t>Persian</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.220604241080689</v>
+        <v>0.9965705998917499</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.59276099873834</v>
+        <v>0.9854954241269278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Swedish</t>
+          <t>Polish</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4235197601055343</v>
+        <v>0.9698233947787287</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Urdu</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9854954241269278</v>
+        <v>0.8892694291320762</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Turkish</t>
+          <t>Vietnamese</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.818988959772109</v>
+        <v>0.7540202725957748</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Urdu</t>
+          <t>Bengali</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8892694291320762</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Uzbek</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1909197054619107</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Vietnamese</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.7540202725957748</v>
+        <v>0.7281202440245618</v>
       </c>
     </row>
   </sheetData>
